--- a/Data/Sinaps/cryptoSSA.xlsx
+++ b/Data/Sinaps/cryptoSSA.xlsx
@@ -511,22 +511,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>w1c56scyhMnxpTb/YoxcOdEnJUfCTVa2nUOLgHMneyjJ9UEZQ2ZjkgpMuyKFEyhgeblSHq8V9iLuktxM6cnYPwbepR+/VZhGPjPFnwt3qHlXKZg4yat6bWSDkcBbNNa/H0ik1iwVPFv3zXcRfVTaUb/X1tj9phjEgAppP/iDY8CseNKwQtJhtBraXEGXKai2wxiP4KCGqekY8hPTSmEYrkjkZpw8Dp0K8Lb6FYwqj7dje4fcMQG5L13fqufIuKUnBc7blT5rRXl2Yu5DYEMxEiNcnxTXNKLF+zr3FZhs5eR8k+7eWP84UDPA8MEO/2Zx7hTjecagvx5dKvYi0T4dDA==</t>
+          <t>te+BtJhzFEU0vSOCpFiKR7ioSYveJEt/fhIyGzpZchUavOyhPISzIBAVMysydL8blpOnV7LlPFtpPAkKPyPR4BHzYXxrcMqduZQdMH9z4S8/nYgz+G+86kZkdsYvKKcDgxQnjE1X6OhJ/QsUaW1tH+UpAq8SoPsmXUElPVV+whtu/BR7fDTM9tSpUmo+/HyyXdzROXq3ZrjRu3zqB/DXGc9FTwRK/UkYuRlyiSrNbRqzbJTRUKqeu7SXwWczAsnH7Vhr7MrtxD2FFQDuVX8dIHg7ZCHWE8uoEkL5Nhg1dryXTWt7caoEYzMKeZ3azH4TOQaDOCw6OC9rhCT8DyUwNw==</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SCzRjn8gB2HRn15Zn1bjuowgvEKzqgskyeGv1Y26HsO08mYz7dg0JM/2TZueoLwaIGF0upx1VFou4FLIg4uiUUvdEuuPUleTMUaYAwE7+tetRInf+rh4ur0Fom4LxvMWHofipBZOXr+lQFpPToqHlKtU48erxZOXfRBK9OdAus831mEXnY/U9416RmKpbCFc1o3p5j+7vTehox4lBisNxsA1CfxxpJ39PIEVr0OBEHnlf5q1z7PPrOpt/A8ybgqxgLsc+WVe/t5Sc39jEb5CF8kkcaloUj37eVnKnAis/x2PBTEyAIEp2599B9sT0+BFZuZ7TRXLPKZi7NIPdx++KA==</t>
+          <t>FE5cO6Z7Rfjcr1pIgaz4G9EPhVW9xImt9YdevuIHE1Hmko9+CYf5RAYnnOLFDWl8+hLm/QQWCyQ99ov7F5D9HLU5PpvIrdCzvyRWVmjiFPjjL34zlVfFaai9Ka1zC5iSQMYiywwlZ/k5BQJkn8sQt1Sru23EaB3t2ke8yvZciDuwb9ymRhT3B8aKvIrLAfaumlgTR9X9zocjDv5M9pK2AfHD6Z/mFKVi8laVsQ741t/nfIPfDZDCIao3n+NslaM1bs+I9cdo4NL4l/7Oxm8ZJfeBbgdu7ElhplzUUuau0xtnZQcvvuHNLo4pYGt0nG5KFKEIckwbkMz8LdmEM2k5JA==</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>RIFtzzZEli3bnzVupGbLP1WsIn2KyvT4v/r3f0M796oDnYSV1FmpsyEgzGHf1kfH98+09Tl/KEdEu/gFd22c+3IwsgAM936rzYYhG9l2zqqsVe0cxn1g5IwJ3BuqdxKfzoMD7SMWLeM/YCJRNigDqFOUtAbtGRKiWLp943qFjSpFtrVCtf7FRja0Jg0SPcjCsjApU1MQkPqalzy4TxV+eNrp4fx+WateYC4y4G72xhLXfEuJBtPNhjuUdV+HzepOUFgGu2uMCdt3lXm2o9eIMXPpZev9RQ16LkQcI4cwAzJqUIl7MDMkLNmRnzJLC2CQEFliDMPLLbuMnjcBc/w+DA==</t>
+          <t>QqbUaIio4GQoMhLicbt/XR/NoBdqzmWeY9f7EdGLWr/ewkjsfj0Anvn0owmTStjBVAHT2Gelbch2g5rAtIKwpXhor3fCjbRmbV3ZcQnqynA72t/0ok/Eqt0FQuy1NNLObgMSxTENJ7K/wfOWaEiITz9KwqiwsYJoV44vtf58FDdRGQK9KxuHdFIfrKRX3GLTojU54bXOuYUcotqmDSJCtFv865DBLp+4lZCXSazC0Ah3GA1HI3yatsaY5XXuYiohYjEr84ScaDFsx6d0zYdRIyjGNpyC5/DsMaugmN4sfpw+sz1UxWxd9700YR+vzK3ki4+P0TPchHLBf923V5nj5Q==</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>OOMdeP8oYBRlSS1XkdS9zJJcPlYlJLIomx0djuWJ7885N1/c/D+Aw2NomtedAYbkCVfn3ISjmvxgKbIFgaSH9yuiEvnVHcbyWBpV5XjxNfxsqMsBr9Pyf0GB16zYNYnIO8dQyydhzhN/hcHNabtH171WjiuWjWZ+IrQeD4WHxeMgHFSm5EC+tvlRqIrLtwhrszwfkZ0imu6bPI4GuLWM+sCgT2/IOMZtAObGHqYgqmDLPkotiBP1lyan4TPAuTr0pVLY3iqmGoC4yGu1nen1dY8CzoV9mkcG8wDx+TvYfYXChfno58wLBmClnJ3mh4T1APQJNA2RYWhxmENbL11jjg==</t>
+          <t>lDsRgj/Zv3QESEdq05EgcdjAKJvkUbnTXvwbVtO6oSbrEYGDCy9/iTszi5PlldOjzdl7Wq3XacmMdPkBom7N3y6UMYj3iVwo+8G6A6IunD5L304l6f3GG0q2PNx4b8X2ZsbvAAOFPqRaLHQ1y3v7YlFiw8LWwuxnflQx3bThmTsteLJy9xEyJFVFkLtjhfFiQmLUaRnaJ7dNSXdueoKXCGVEgj2n1nky9aw3v432YAN6Sk3KFIlFW4YXU+6zoOnHD+b8b1nVWg54B87BOXOPt0xXZ1gINbdsmeoxswGd3X9Z7TvapIhFjSSBeCU4v+5XtWuM5V0v4agrZRbOW9za5Q==</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
